--- a/biology/Zoologie/Crotalus_angelensis/Crotalus_angelensis.xlsx
+++ b/biology/Zoologie/Crotalus_angelensis/Crotalus_angelensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus angelensis est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus angelensis est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La longueur de ce serpent venimeux et vivipare atteint environ 137 centimètres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur de ce serpent venimeux et vivipare atteint environ 137 centimètres.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Ángel de la Guarda en Basse-Californie au Mexique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Ángel de la Guarda en Basse-Californie au Mexique.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines classifications considèrent cette espèce comme étant une sous-espèce de Crotalus mitchellii sous le nom de Crotalus mitchellii angelensis[3],[4].
-De plus Hooser a proposé en 2009 la création d'un nouveau genre Matteoea et le déplacement de cette espèce dans ce genre, sous le nom Matteoea angelensis[5] mais ces changements n'ont pas été retenus[6],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines classifications considèrent cette espèce comme étant une sous-espèce de Crotalus mitchellii sous le nom de Crotalus mitchellii angelensis,.
+De plus Hooser a proposé en 2009 la création d'un nouveau genre Matteoea et le déplacement de cette espèce dans ce genre, sous le nom Matteoea angelensis mais ces changements n'ont pas été retenus,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, angelensis, est composé de angel et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île Ángel de la Guarda[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, angelensis, est composé de angel et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île Ángel de la Guarda.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Klauber, 1963 : A new insular subspecies of the speckled rattlesnake. Transactions of the San Diego Society of Natural History, vol. 13, no 5, p. 73-80 (texte intégral).</t>
         </is>
